--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Users\workspace\jsoncompare\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Users\workspace\JsonCompare\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34FD948-B5CD-4408-99B2-58AEFBA9F593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED3143D-588A-455B-A55A-F0774A909CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
